--- a/data/Capricoin/Capricoin20170101.xlsx
+++ b/data/Capricoin/Capricoin20170101.xlsx
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127">
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="142">
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="157">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163">
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166">
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167">
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171">
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
